--- a/dataset/test.xlsx
+++ b/dataset/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/devilng05108/NodeJS_projects/updateMasterDataset/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF448FE6-CA25-AE46-85EB-F1EFAF503FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0CADEB-E889-FE42-AFC7-70F225B05BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2000" windowWidth="27640" windowHeight="16940" xr2:uid="{13144649-28BB-3A40-A591-342E9201D95F}"/>
+    <workbookView xWindow="-34680" yWindow="6840" windowWidth="27640" windowHeight="16940" xr2:uid="{13144649-28BB-3A40-A591-342E9201D95F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,51 +34,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>repo_id</t>
   </si>
   <si>
-    <t>Primary Language</t>
-  </si>
-  <si>
-    <t>Repo_description</t>
-  </si>
-  <si>
     <t>size</t>
   </si>
   <si>
     <t>stars</t>
   </si>
   <si>
-    <t>commits_count</t>
-  </si>
-  <si>
-    <t>contributors_count_without_anonymous</t>
-  </si>
-  <si>
-    <t>contributors_count_with_anonymous</t>
-  </si>
-  <si>
     <t>created_at</t>
   </si>
   <si>
     <t>pushed_at</t>
   </si>
   <si>
-    <t>repo/username</t>
-  </si>
-  <si>
-    <t>repo_link</t>
+    <t>JavaScript</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>primary_language</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>contributors_without_anonymous</t>
+  </si>
+  <si>
+    <t>full_name</t>
+  </si>
+  <si>
+    <t>html_url</t>
+  </si>
+  <si>
+    <t>api_url</t>
+  </si>
+  <si>
+    <t>JavaScript Vector Library</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>2008-09-02T05:34:33Z</t>
+  </si>
+  <si>
+    <t>2021-03-03T08:44:02Z</t>
+  </si>
+  <si>
+    <t>DmitryBaranovskiy/raphael</t>
+  </si>
+  <si>
+    <t>https://github.com/DmitryBaranovskiy/raphael</t>
+  </si>
+  <si>
+    <t>https://api.github.com/repos/DmitryBaranovskiy/raphael</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -108,15 +129,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,72 +448,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AD59D4F-E8E2-9A43-B0AC-B1342135CD63}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="11" max="11" width="49.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="68" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="J1" t="s">
         <v>11</v>
       </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>48296</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>6857</v>
+      </c>
+      <c r="E2">
+        <v>11011</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>63557</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>84009</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>85670</v>
+        <v>24366295</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
